--- a/time_results.xlsx
+++ b/time_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\C++\Boolean-Schemes-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71487548-09AB-481F-A925-17EDD2C00AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1899F903-89CF-44AC-B23D-615B054D1FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7905" yWindow="2055" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,14 +455,14 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2211748</v>
+        <v>2174760</v>
       </c>
       <c r="C2">
-        <v>1787980</v>
+        <v>1781967</v>
       </c>
       <c r="D2">
         <f xml:space="preserve"> ROUND(100 * (B2 - C2) / B2, 1)</f>
-        <v>19.2</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -470,14 +470,14 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>148897</v>
+        <v>139919</v>
       </c>
       <c r="C3">
-        <v>101941</v>
+        <v>93958</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D13" si="0" xml:space="preserve"> ROUND(100 * (B3 - C3) / B3, 1)</f>
-        <v>31.5</v>
+        <v>32.799999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,14 +500,14 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30981</v>
+        <v>29982</v>
       </c>
       <c r="C5">
-        <v>16989</v>
+        <v>17003</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>45.2</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -515,14 +515,14 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1219287</v>
+        <v>1214296</v>
       </c>
       <c r="C6">
-        <v>841536</v>
+        <v>846519</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -530,14 +530,14 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>261853</v>
+        <v>259854</v>
       </c>
       <c r="C7">
-        <v>207883</v>
+        <v>204881</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>20.6</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,14 +545,14 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3004297</v>
+        <v>2997284</v>
       </c>
       <c r="C8">
-        <v>2543548</v>
+        <v>2526558</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -575,14 +575,14 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1686057</v>
+        <v>1674045</v>
       </c>
       <c r="C10">
-        <v>25986</v>
+        <v>1600093</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -605,14 +605,14 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41975</v>
+        <v>41990</v>
       </c>
       <c r="C12">
-        <v>33982</v>
+        <v>33990</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -620,14 +620,14 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1688037</v>
+        <v>1679042</v>
       </c>
       <c r="C13">
-        <v>1436201</v>
+        <v>1439181</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
     </row>
   </sheetData>

--- a/time_results.xlsx
+++ b/time_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\C++\Boolean-Schemes-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1899F903-89CF-44AC-B23D-615B054D1FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A722A8-E20A-444B-8E99-CF59370FF295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7905" yWindow="2055" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,14 +455,14 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2174760</v>
+        <v>2249727</v>
       </c>
       <c r="C2">
-        <v>1781967</v>
+        <v>1891921</v>
       </c>
       <c r="D2">
         <f xml:space="preserve"> ROUND(100 * (B2 - C2) / B2, 1)</f>
-        <v>18.100000000000001</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -470,14 +470,14 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>139919</v>
+        <v>140925</v>
       </c>
       <c r="C3">
-        <v>93958</v>
+        <v>106938</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D13" si="0" xml:space="preserve"> ROUND(100 * (B3 - C3) / B3, 1)</f>
-        <v>32.799999999999997</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -485,14 +485,14 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,14 +500,14 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29982</v>
+        <v>30981</v>
       </c>
       <c r="C5">
-        <v>17003</v>
+        <v>27983</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>43.3</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -515,14 +515,14 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1214296</v>
+        <v>1227300</v>
       </c>
       <c r="C6">
-        <v>846519</v>
+        <v>1129365</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>30.3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -530,14 +530,14 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>259854</v>
+        <v>264866</v>
       </c>
       <c r="C7">
-        <v>204881</v>
+        <v>246853</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>21.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,14 +545,14 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2997284</v>
+        <v>3074260</v>
       </c>
       <c r="C8">
-        <v>2526558</v>
+        <v>2705447</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>15.7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -575,14 +575,14 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1674045</v>
+        <v>1703039</v>
       </c>
       <c r="C10">
-        <v>1600093</v>
+        <v>1616078</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -605,14 +605,14 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41990</v>
+        <v>42980</v>
       </c>
       <c r="C12">
-        <v>33990</v>
+        <v>37967</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>19.100000000000001</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -620,14 +620,14 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1679042</v>
+        <v>1703035</v>
       </c>
       <c r="C13">
-        <v>1439181</v>
+        <v>1609082</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>14.3</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
